--- a/sample/test/bad_template.xlsx
+++ b/sample/test/bad_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA20D3-75D3-AF4F-A5B2-73CB95236B40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A9320-A5EF-284A-B9FD-AE9F32D86518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -90,7 +90,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">param: {offset: 1}
+          <t xml:space="preserve">params: {offset: 1}
 </t>
         </r>
         <r>
@@ -682,7 +682,7 @@
   <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/sample/test/bad_template.xlsx
+++ b/sample/test/bad_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619A9320-A5EF-284A-B9FD-AE9F32D86518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC9985-BAA3-4D48-BF61-F3C06AB8990D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="2" r:id="rId1"/>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">parser: int_with_offset
+          <t xml:space="preserve">parser: int
 </t>
         </r>
         <r>
@@ -110,17 +110,17 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">  - {name: more_than, threshold: 0} 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">  - {name: less_than, theshold: 0} 
+          <t xml:space="preserve">  - {key: first_validation, name: more_than, threshold: 0} 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">  - {key: second_validation, name: less_than, theshold: 10} 
 </t>
         </r>
         <r>
@@ -170,7 +170,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">parser: str
+          <t xml:space="preserve">parser: string
 </t>
         </r>
         <r>

--- a/sample/test/bad_template.xlsx
+++ b/sample/test/bad_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piti/playground/excel_comment_orm/sample/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC9985-BAA3-4D48-BF61-F3C06AB8990D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA66FFE-0D1C-5B4B-BC6A-D11766E7540C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15000" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
@@ -60,7 +60,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -130,7 +130,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%end eco
+          <t xml:space="preserve">--}}
 </t>
         </r>
         <r>
@@ -150,7 +150,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -180,7 +180,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">%%end eco
+          <t xml:space="preserve">--}}
 </t>
         </r>
       </text>
@@ -214,7 +214,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
+          <t xml:space="preserve">{{--
 </t>
         </r>
         <r>
@@ -244,7 +244,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>%%end eco</t>
+          <t>--}}</t>
         </r>
       </text>
     </comment>
@@ -277,17 +277,17 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">%%begin eco
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>%%begin eco</t>
+          <t xml:space="preserve">{{--
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>{{--</t>
         </r>
       </text>
     </comment>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBE698-D470-46AC-96B1-DE0D5151A06B}">
   <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
